--- a/biology/Zoologie/Hirondelle_à_queue_courte/Hirondelle_à_queue_courte.xlsx
+++ b/biology/Zoologie/Hirondelle_à_queue_courte/Hirondelle_à_queue_courte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hirondelle_%C3%A0_queue_courte</t>
+          <t>Hirondelle_à_queue_courte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psalidoprocne nitens
 L'Hirondelle à queue courte (Psalidoprocne nitens) est une espèce de passereau de la famille des Hirundinidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hirondelle_%C3%A0_queue_courte</t>
+          <t>Hirondelle_à_queue_courte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de répartition s'étend sur la Guinée, la Sierra Leone, le Liberia, la Côte d'Ivoire, le Ghana, le Nigeria, le Cameroun, la République centrafricaine, la Guinée équatoriale, le Gabon, la République du Congo, la République démocratique du Congo et l'Angola. 
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hirondelle_%C3%A0_queue_courte</t>
+          <t>Hirondelle_à_queue_courte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Locomotion</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme pour la plupart des hirondelles communes elle se déplace en volant avec une préférence pour le vol battu, mais elle peut marcher sur le sol (3 km/h) lorsqu'elle cherche sa nourriture (chenilles brunes, sauterelles herbacées entre autres).
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hirondelle_%C3%A0_queue_courte</t>
+          <t>Hirondelle_à_queue_courte</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cet oiseau est représenté par 2 sous-espèces :
 Psalidoprocne nitens centralis Neumann, 1904 ;
